--- a/excel/tolls_202308.xlsx
+++ b/excel/tolls_202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -745,7 +745,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>123</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>225</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>129</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>616</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>497</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>281</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2555,24 +2555,24 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1744</t>
+          <t>2538</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2692,12 +2692,12 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>186</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2712,12 +2712,12 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2727,29 +2727,29 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>167</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>674</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -2854,27 +2854,27 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>22</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2889,39 +2889,39 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>533</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3031,27 +3031,27 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>159</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3066,44 +3066,44 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>173</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>97</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3263,19 +3263,19 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>154</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3385,27 +3385,27 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3420,44 +3420,44 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>517</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3562,17 +3562,17 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3612,24 +3612,24 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3744,22 +3744,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>202</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>134</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3774,12 +3774,12 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>149</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3789,29 +3789,29 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>588</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3926,17 +3926,17 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3951,12 +3951,12 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3971,24 +3971,24 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0AA6</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -4148,24 +4148,24 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0AA81</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -4325,19 +4325,19 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>99</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4452,22 +4452,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>183</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4502,24 +4502,24 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>769</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>楊筑珺</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Chynee Yang</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -4624,32 +4624,32 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4659,12 +4659,12 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4679,24 +4679,24 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>155</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>楊筑珺</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chynee Yang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4836,17 +4836,17 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -4856,19 +4856,19 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>107</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -5018,34 +5018,34 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>114</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5155,22 +5155,22 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -5205,29 +5205,29 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>186</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5332,22 +5332,22 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -5382,34 +5382,34 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -5564,24 +5564,24 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -5686,27 +5686,27 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>189</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5721,12 +5721,12 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>191</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -5736,24 +5736,24 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>586</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5868,22 +5868,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5898,12 +5898,12 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -5913,24 +5913,24 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>83</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -6090,49 +6090,44 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>223</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>321</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6147,7 +6142,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6157,7 +6152,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>342</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6172,12 +6167,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>323</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>331</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6187,12 +6182,12 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>318</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -6202,12 +6197,12 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -6217,32 +6212,32 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>750</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>427</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>647</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,252</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>987</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -6252,199 +6247,27 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,411</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>753</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>537</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>616</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>487</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>597</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>1,013</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>395</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>6,099</t>
+          <t>9,872</t>
         </is>
       </c>
     </row>
